--- a/data/pca/factorExposure/factorExposure_2012-03-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0171415316064213</v>
+        <v>0.01659609957047278</v>
       </c>
       <c r="C2">
-        <v>0.03572328421155811</v>
+        <v>-0.02905385035134413</v>
       </c>
       <c r="D2">
-        <v>0.01223357505182335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0008176440329832151</v>
+      </c>
+      <c r="E2">
+        <v>0.009317704052139686</v>
+      </c>
+      <c r="F2">
+        <v>-0.009614725001723832</v>
+      </c>
+      <c r="G2">
+        <v>-0.007582760386104596</v>
+      </c>
+      <c r="H2">
+        <v>-0.05708497746886387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07443283556266482</v>
+        <v>0.08814533679273849</v>
       </c>
       <c r="C4">
-        <v>0.05335610900778335</v>
+        <v>-0.03879842513323826</v>
       </c>
       <c r="D4">
-        <v>-0.07853575902590736</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06472457636312395</v>
+      </c>
+      <c r="E4">
+        <v>0.01606092763688071</v>
+      </c>
+      <c r="F4">
+        <v>-0.03015044225822597</v>
+      </c>
+      <c r="G4">
+        <v>-0.007347523257819537</v>
+      </c>
+      <c r="H4">
+        <v>0.0393834660124329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1091787316271871</v>
+        <v>0.1201901183297471</v>
       </c>
       <c r="C6">
-        <v>0.05813211668528601</v>
+        <v>-0.03607366150613717</v>
       </c>
       <c r="D6">
-        <v>0.007026228156926678</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.009938265115579752</v>
+      </c>
+      <c r="E6">
+        <v>-0.006501317478707717</v>
+      </c>
+      <c r="F6">
+        <v>-0.05812287227255161</v>
+      </c>
+      <c r="G6">
+        <v>-0.02297965837226217</v>
+      </c>
+      <c r="H6">
+        <v>-0.1017678916080107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04859444303196931</v>
+        <v>0.06390976197543209</v>
       </c>
       <c r="C7">
-        <v>0.02749800739662115</v>
+        <v>-0.02006894730761734</v>
       </c>
       <c r="D7">
-        <v>-0.045979461155217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04546124249812928</v>
+      </c>
+      <c r="E7">
+        <v>0.03838054256337405</v>
+      </c>
+      <c r="F7">
+        <v>-0.03206064290105788</v>
+      </c>
+      <c r="G7">
+        <v>0.03840181886051456</v>
+      </c>
+      <c r="H7">
+        <v>0.01094459209085243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03719943988886331</v>
+        <v>0.0406882426887635</v>
       </c>
       <c r="C8">
-        <v>0.01166974512748332</v>
+        <v>-0.007426906684607344</v>
       </c>
       <c r="D8">
-        <v>-0.04820504831528181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02031216468469598</v>
+      </c>
+      <c r="E8">
+        <v>0.03598660650852107</v>
+      </c>
+      <c r="F8">
+        <v>-0.04856268860066016</v>
+      </c>
+      <c r="G8">
+        <v>-0.04991401162709779</v>
+      </c>
+      <c r="H8">
+        <v>-0.003825156320640982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06706029445520262</v>
+        <v>0.07921702560069367</v>
       </c>
       <c r="C9">
-        <v>0.04245244491460359</v>
+        <v>-0.02876479076501772</v>
       </c>
       <c r="D9">
-        <v>-0.07242259025871262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06296757156042977</v>
+      </c>
+      <c r="E9">
+        <v>0.03912667506906396</v>
+      </c>
+      <c r="F9">
+        <v>-0.03042225680068791</v>
+      </c>
+      <c r="G9">
+        <v>-0.007618462195149217</v>
+      </c>
+      <c r="H9">
+        <v>0.04870348668026767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02833760802335809</v>
+        <v>0.03420132148652324</v>
       </c>
       <c r="C10">
-        <v>0.03341919292053772</v>
+        <v>-0.04128587953752965</v>
       </c>
       <c r="D10">
-        <v>0.1792020981042175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1710609108964471</v>
+      </c>
+      <c r="E10">
+        <v>0.0488859297506412</v>
+      </c>
+      <c r="F10">
+        <v>-0.04362605907878764</v>
+      </c>
+      <c r="G10">
+        <v>0.04133138364221266</v>
+      </c>
+      <c r="H10">
+        <v>-0.03606049674868262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07010044789853226</v>
+        <v>0.07630371722616887</v>
       </c>
       <c r="C11">
-        <v>0.0475757359716515</v>
+        <v>-0.0283452969458809</v>
       </c>
       <c r="D11">
-        <v>-0.0561053269441919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06266439190034812</v>
+      </c>
+      <c r="E11">
+        <v>-0.001239340078787036</v>
+      </c>
+      <c r="F11">
+        <v>-0.02678155078342623</v>
+      </c>
+      <c r="G11">
+        <v>0.002801211610668796</v>
+      </c>
+      <c r="H11">
+        <v>0.0919619052149564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05769851939785924</v>
+        <v>0.06718362299532434</v>
       </c>
       <c r="C12">
-        <v>0.05179947921340054</v>
+        <v>-0.03693635112614491</v>
       </c>
       <c r="D12">
-        <v>-0.04615529502003254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04809772575589383</v>
+      </c>
+      <c r="E12">
+        <v>0.01383667853052884</v>
+      </c>
+      <c r="F12">
+        <v>-0.01990167197687685</v>
+      </c>
+      <c r="G12">
+        <v>-0.002077847827015415</v>
+      </c>
+      <c r="H12">
+        <v>0.04806310810721973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.05971392541744572</v>
+        <v>0.06507135025766869</v>
       </c>
       <c r="C13">
-        <v>0.04005667998004649</v>
+        <v>-0.02527643798542817</v>
       </c>
       <c r="D13">
-        <v>-0.06330857217809721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04175822972424679</v>
+      </c>
+      <c r="E13">
+        <v>0.01493960257352937</v>
+      </c>
+      <c r="F13">
+        <v>8.96298927850016e-05</v>
+      </c>
+      <c r="G13">
+        <v>0.008350395038860965</v>
+      </c>
+      <c r="H13">
+        <v>0.03976663065920574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0327221463974885</v>
+        <v>0.04141637480354265</v>
       </c>
       <c r="C14">
-        <v>0.0322527831853049</v>
+        <v>-0.02832648165569785</v>
       </c>
       <c r="D14">
-        <v>0.0003225834597568206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.005311965545191713</v>
+      </c>
+      <c r="E14">
+        <v>0.03278597540305673</v>
+      </c>
+      <c r="F14">
+        <v>-0.009798933777388151</v>
+      </c>
+      <c r="G14">
+        <v>-0.01022290326465283</v>
+      </c>
+      <c r="H14">
+        <v>0.05634311463188467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03880695621769476</v>
+        <v>0.03946502398545696</v>
       </c>
       <c r="C15">
-        <v>0.01030109004721761</v>
+        <v>-0.002954842167012894</v>
       </c>
       <c r="D15">
-        <v>-0.01737164834244023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003322652044730326</v>
+      </c>
+      <c r="E15">
+        <v>0.04105268715339828</v>
+      </c>
+      <c r="F15">
+        <v>0.006710757232919142</v>
+      </c>
+      <c r="G15">
+        <v>-0.02853504690846692</v>
+      </c>
+      <c r="H15">
+        <v>0.03369932816541342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06076664052450137</v>
+        <v>0.0703967284909964</v>
       </c>
       <c r="C16">
-        <v>0.0435551160083863</v>
+        <v>-0.02897237015844388</v>
       </c>
       <c r="D16">
-        <v>-0.04598570978864729</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0619229575486502</v>
+      </c>
+      <c r="E16">
+        <v>0.007690575174930966</v>
+      </c>
+      <c r="F16">
+        <v>-0.02404012309817957</v>
+      </c>
+      <c r="G16">
+        <v>0.003172190011278784</v>
+      </c>
+      <c r="H16">
+        <v>0.0560756510668954</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06431043406997378</v>
+        <v>0.06360914094291935</v>
       </c>
       <c r="C20">
-        <v>0.03150609708642969</v>
+        <v>-0.0133695532409804</v>
       </c>
       <c r="D20">
-        <v>-0.04883784748126151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03965862460076551</v>
+      </c>
+      <c r="E20">
+        <v>0.03480240861347836</v>
+      </c>
+      <c r="F20">
+        <v>-0.01629255422666415</v>
+      </c>
+      <c r="G20">
+        <v>-0.01151099588159118</v>
+      </c>
+      <c r="H20">
+        <v>0.0459326369801622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02333233779413661</v>
+        <v>0.02466075064915506</v>
       </c>
       <c r="C21">
-        <v>-0.002355835440321179</v>
+        <v>0.009490545135270737</v>
       </c>
       <c r="D21">
-        <v>-0.02534564507220326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02758843689419148</v>
+      </c>
+      <c r="E21">
+        <v>0.04008049813737745</v>
+      </c>
+      <c r="F21">
+        <v>0.01530413787687</v>
+      </c>
+      <c r="G21">
+        <v>-0.007744204972668199</v>
+      </c>
+      <c r="H21">
+        <v>-0.05111215969027579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07725408499691962</v>
+        <v>0.07245278446183982</v>
       </c>
       <c r="C22">
-        <v>0.05984419156377493</v>
+        <v>-0.03966827122198904</v>
       </c>
       <c r="D22">
-        <v>-0.100766716734999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0629527254510356</v>
+      </c>
+      <c r="E22">
+        <v>0.5633624825600134</v>
+      </c>
+      <c r="F22">
+        <v>0.2486147065736532</v>
+      </c>
+      <c r="G22">
+        <v>0.05733450967943262</v>
+      </c>
+      <c r="H22">
+        <v>-0.1626918509799778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07822964000976693</v>
+        <v>0.07308803358875822</v>
       </c>
       <c r="C23">
-        <v>0.05876216205189799</v>
+        <v>-0.03837040982643105</v>
       </c>
       <c r="D23">
-        <v>-0.1023556436673517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06383707272154535</v>
+      </c>
+      <c r="E23">
+        <v>0.5628236320121107</v>
+      </c>
+      <c r="F23">
+        <v>0.2472032961845692</v>
+      </c>
+      <c r="G23">
+        <v>0.05566353466412772</v>
+      </c>
+      <c r="H23">
+        <v>-0.157796032157562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07115310473072031</v>
+        <v>0.08003222662213633</v>
       </c>
       <c r="C24">
-        <v>0.05230741589059069</v>
+        <v>-0.03460760766379088</v>
       </c>
       <c r="D24">
-        <v>-0.05800586721762531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05883037685162142</v>
+      </c>
+      <c r="E24">
+        <v>0.01701429060277653</v>
+      </c>
+      <c r="F24">
+        <v>-0.03441168779575254</v>
+      </c>
+      <c r="G24">
+        <v>-0.007944927913743207</v>
+      </c>
+      <c r="H24">
+        <v>0.06299159010576919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07060210287541752</v>
+        <v>0.07751612521444055</v>
       </c>
       <c r="C25">
-        <v>0.05760833343616675</v>
+        <v>-0.03938057612510971</v>
       </c>
       <c r="D25">
-        <v>-0.06623761203671399</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05145161533851596</v>
+      </c>
+      <c r="E25">
+        <v>0.02037430353548055</v>
+      </c>
+      <c r="F25">
+        <v>-0.02652102570316075</v>
+      </c>
+      <c r="G25">
+        <v>-0.0194541307266574</v>
+      </c>
+      <c r="H25">
+        <v>0.06263353256848415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04460605351896186</v>
+        <v>0.04752222193118516</v>
       </c>
       <c r="C26">
-        <v>0.01037957824291716</v>
+        <v>-0.002728219590551455</v>
       </c>
       <c r="D26">
-        <v>-0.01294823174164013</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01774385932088622</v>
+      </c>
+      <c r="E26">
+        <v>0.0525750680962899</v>
+      </c>
+      <c r="F26">
+        <v>-0.01834413891590757</v>
+      </c>
+      <c r="G26">
+        <v>0.007672667703098339</v>
+      </c>
+      <c r="H26">
+        <v>0.0570325020758058</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05186920301435853</v>
+        <v>0.06164594663424224</v>
       </c>
       <c r="C28">
-        <v>0.07562391901211515</v>
+        <v>-0.08398367818150172</v>
       </c>
       <c r="D28">
-        <v>0.3159784341568233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.3077476948890612</v>
+      </c>
+      <c r="E28">
+        <v>0.02469073735264387</v>
+      </c>
+      <c r="F28">
+        <v>-0.05629489437604844</v>
+      </c>
+      <c r="G28">
+        <v>-0.02974017776634848</v>
+      </c>
+      <c r="H28">
+        <v>-0.044803894490631</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.03999098333360665</v>
+        <v>0.04790428326662743</v>
       </c>
       <c r="C29">
-        <v>0.03107437673105858</v>
+        <v>-0.02552747889320808</v>
       </c>
       <c r="D29">
-        <v>0.001336076457990516</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.005523768347756431</v>
+      </c>
+      <c r="E29">
+        <v>0.05738482344842977</v>
+      </c>
+      <c r="F29">
+        <v>0.003286791297660567</v>
+      </c>
+      <c r="G29">
+        <v>0.004763632007338041</v>
+      </c>
+      <c r="H29">
+        <v>0.07861318130547898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.127469246377137</v>
+        <v>0.1324697774987804</v>
       </c>
       <c r="C30">
-        <v>0.09608556585926073</v>
+        <v>-0.06505222733232205</v>
       </c>
       <c r="D30">
-        <v>-0.112046518016236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.06810063395835862</v>
+      </c>
+      <c r="E30">
+        <v>0.08349816657470724</v>
+      </c>
+      <c r="F30">
+        <v>0.02265057665016668</v>
+      </c>
+      <c r="G30">
+        <v>-0.07290968538533947</v>
+      </c>
+      <c r="H30">
+        <v>-0.04947364803381191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04228984406294745</v>
+        <v>0.0488422338659899</v>
       </c>
       <c r="C31">
-        <v>0.02228603230127039</v>
+        <v>-0.01457065645879051</v>
       </c>
       <c r="D31">
-        <v>-0.02509656543780211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02461316241704027</v>
+      </c>
+      <c r="E31">
+        <v>0.02949706783710718</v>
+      </c>
+      <c r="F31">
+        <v>-0.008345910056080713</v>
+      </c>
+      <c r="G31">
+        <v>0.02358839095590971</v>
+      </c>
+      <c r="H31">
+        <v>0.06369540353861027</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03511768127948552</v>
+        <v>0.03859214932021757</v>
       </c>
       <c r="C32">
-        <v>0.02481552879999494</v>
+        <v>-0.01926695570587575</v>
       </c>
       <c r="D32">
-        <v>-0.02699717974408627</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0117472357236625</v>
+      </c>
+      <c r="E32">
+        <v>0.06904739202203337</v>
+      </c>
+      <c r="F32">
+        <v>0.02221186896297939</v>
+      </c>
+      <c r="G32">
+        <v>-0.02715922548066209</v>
+      </c>
+      <c r="H32">
+        <v>0.07621179718939848</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08240271417982555</v>
+        <v>0.09531332484442955</v>
       </c>
       <c r="C33">
-        <v>0.04423299447479096</v>
+        <v>-0.02698757490452442</v>
       </c>
       <c r="D33">
-        <v>-0.06538657094226082</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0488003038664995</v>
+      </c>
+      <c r="E33">
+        <v>0.01537615192722159</v>
+      </c>
+      <c r="F33">
+        <v>-0.0006193524795800568</v>
+      </c>
+      <c r="G33">
+        <v>0.007956169149554507</v>
+      </c>
+      <c r="H33">
+        <v>0.06743893070804072</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05654072938226987</v>
+        <v>0.06231791884422012</v>
       </c>
       <c r="C34">
-        <v>0.02946016347893512</v>
+        <v>-0.01431794253719057</v>
       </c>
       <c r="D34">
-        <v>-0.05406684799597965</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05402634479873059</v>
+      </c>
+      <c r="E34">
+        <v>0.01045534368694476</v>
+      </c>
+      <c r="F34">
+        <v>-0.01770884885411022</v>
+      </c>
+      <c r="G34">
+        <v>-0.005670415256180852</v>
+      </c>
+      <c r="H34">
+        <v>0.05820654474327428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03668511573667954</v>
+        <v>0.04024783836366939</v>
       </c>
       <c r="C35">
-        <v>0.009023544235452792</v>
+        <v>-0.004117257286106333</v>
       </c>
       <c r="D35">
-        <v>-0.00728272744472056</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.008106439005692705</v>
+      </c>
+      <c r="E35">
+        <v>0.01764095392068444</v>
+      </c>
+      <c r="F35">
+        <v>0.02051936666473843</v>
+      </c>
+      <c r="G35">
+        <v>0.01152192948070005</v>
+      </c>
+      <c r="H35">
+        <v>0.02137274768124164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02049114359871386</v>
+        <v>0.02732478404049417</v>
       </c>
       <c r="C36">
-        <v>0.01755455412159032</v>
+        <v>-0.01384276473150487</v>
       </c>
       <c r="D36">
-        <v>-0.01599716129426813</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01249142383264882</v>
+      </c>
+      <c r="E36">
+        <v>0.04490524072849997</v>
+      </c>
+      <c r="F36">
+        <v>-0.01156601903876515</v>
+      </c>
+      <c r="G36">
+        <v>0.008386560032592642</v>
+      </c>
+      <c r="H36">
+        <v>0.04386212101935068</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.03937418804180756</v>
+        <v>0.04406468200263507</v>
       </c>
       <c r="C38">
-        <v>0.00349104673631137</v>
+        <v>0.001550420765236532</v>
       </c>
       <c r="D38">
-        <v>-0.01656995172204656</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0162199338805993</v>
+      </c>
+      <c r="E38">
+        <v>0.05342490619264288</v>
+      </c>
+      <c r="F38">
+        <v>0.01828432362117896</v>
+      </c>
+      <c r="G38">
+        <v>-0.0144888813581303</v>
+      </c>
+      <c r="H38">
+        <v>0.02404312180178514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.08985603352211065</v>
+        <v>0.1022952739128713</v>
       </c>
       <c r="C39">
-        <v>0.07288005836129073</v>
+        <v>-0.05149196531084675</v>
       </c>
       <c r="D39">
-        <v>-0.06665362463319471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06390085406628833</v>
+      </c>
+      <c r="E39">
+        <v>0.0006266467504104947</v>
+      </c>
+      <c r="F39">
+        <v>-0.00756323990081513</v>
+      </c>
+      <c r="G39">
+        <v>-0.03457541444252638</v>
+      </c>
+      <c r="H39">
+        <v>0.05422101047086174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0745817666019421</v>
+        <v>0.07208649585266903</v>
       </c>
       <c r="C40">
-        <v>0.04132535720037036</v>
+        <v>-0.02026997097900433</v>
       </c>
       <c r="D40">
-        <v>0.004657246586281354</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01002166859085759</v>
+      </c>
+      <c r="E40">
+        <v>0.01736703131669034</v>
+      </c>
+      <c r="F40">
+        <v>0.05499381858037511</v>
+      </c>
+      <c r="G40">
+        <v>-0.03767455749414044</v>
+      </c>
+      <c r="H40">
+        <v>-0.100024192713549</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04060450604271922</v>
+        <v>0.043571308551247</v>
       </c>
       <c r="C41">
-        <v>0.005730632720255925</v>
+        <v>0.001559389272789692</v>
       </c>
       <c r="D41">
-        <v>-0.03796208602516656</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03411291643588038</v>
+      </c>
+      <c r="E41">
+        <v>0.004386331762030017</v>
+      </c>
+      <c r="F41">
+        <v>0.01747958884334521</v>
+      </c>
+      <c r="G41">
+        <v>-0.00998302951671763</v>
+      </c>
+      <c r="H41">
+        <v>0.03226850836646356</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04717386559559899</v>
+        <v>0.0575844783010277</v>
       </c>
       <c r="C43">
-        <v>0.02624952989847222</v>
+        <v>-0.01784933149772509</v>
       </c>
       <c r="D43">
-        <v>-0.01806676272221503</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02503294258594452</v>
+      </c>
+      <c r="E43">
+        <v>0.02013164558795898</v>
+      </c>
+      <c r="F43">
+        <v>-0.009372551428581153</v>
+      </c>
+      <c r="G43">
+        <v>0.0148479102199761</v>
+      </c>
+      <c r="H43">
+        <v>0.05386615688732637</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09360328232231131</v>
+        <v>0.09476408691871406</v>
       </c>
       <c r="C44">
-        <v>0.09334893320270933</v>
+        <v>-0.06528354336804637</v>
       </c>
       <c r="D44">
-        <v>-0.08156268981329239</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.06018741019582401</v>
+      </c>
+      <c r="E44">
+        <v>0.09583736482488578</v>
+      </c>
+      <c r="F44">
+        <v>-0.03581508025598003</v>
+      </c>
+      <c r="G44">
+        <v>-0.03011088992992687</v>
+      </c>
+      <c r="H44">
+        <v>0.0146421695425107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02472934287295558</v>
+        <v>0.03321449024398584</v>
       </c>
       <c r="C46">
-        <v>0.01433385256239115</v>
+        <v>-0.01176699973629047</v>
       </c>
       <c r="D46">
-        <v>-0.01831785921357428</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03094732817956874</v>
+      </c>
+      <c r="E46">
+        <v>0.03013853604961031</v>
+      </c>
+      <c r="F46">
+        <v>-0.01297461718981866</v>
+      </c>
+      <c r="G46">
+        <v>-0.001303502744893779</v>
+      </c>
+      <c r="H46">
+        <v>0.03655759336255344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03038218268663863</v>
+        <v>0.03804206156012339</v>
       </c>
       <c r="C47">
-        <v>0.02451854028698856</v>
+        <v>-0.0199221396319627</v>
       </c>
       <c r="D47">
-        <v>-0.01002944087997349</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008769247381301552</v>
+      </c>
+      <c r="E47">
+        <v>0.05191506481862036</v>
+      </c>
+      <c r="F47">
+        <v>-0.006053065884882008</v>
+      </c>
+      <c r="G47">
+        <v>0.03895913092418647</v>
+      </c>
+      <c r="H47">
+        <v>0.02547763750733851</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03188986208494046</v>
+        <v>0.03770399091437139</v>
       </c>
       <c r="C48">
-        <v>0.01799928194403312</v>
+        <v>-0.01176963024443749</v>
       </c>
       <c r="D48">
-        <v>-0.03098849995664625</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01803284342597293</v>
+      </c>
+      <c r="E48">
+        <v>0.0434770518061608</v>
+      </c>
+      <c r="F48">
+        <v>0.0004066855939957568</v>
+      </c>
+      <c r="G48">
+        <v>-0.01155631035301057</v>
+      </c>
+      <c r="H48">
+        <v>0.0420432775454053</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1626494299333311</v>
+        <v>0.190099436144166</v>
       </c>
       <c r="C49">
-        <v>0.06440778328200156</v>
+        <v>-0.03591041918112509</v>
       </c>
       <c r="D49">
-        <v>0.02067202183503299</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03195284065412009</v>
+      </c>
+      <c r="E49">
+        <v>-0.1441390046061553</v>
+      </c>
+      <c r="F49">
+        <v>-0.0728024755026513</v>
+      </c>
+      <c r="G49">
+        <v>0.06354244823077043</v>
+      </c>
+      <c r="H49">
+        <v>-0.2438005531446627</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0393458121548194</v>
+        <v>0.0459050777388586</v>
       </c>
       <c r="C50">
-        <v>0.02625169656732609</v>
+        <v>-0.01895076303543134</v>
       </c>
       <c r="D50">
-        <v>-0.03408422868722669</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02884884005959211</v>
+      </c>
+      <c r="E50">
+        <v>0.05249641955234827</v>
+      </c>
+      <c r="F50">
+        <v>-0.008583330677724446</v>
+      </c>
+      <c r="G50">
+        <v>0.01911931865248008</v>
+      </c>
+      <c r="H50">
+        <v>0.06062901834807934</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.0253900693886851</v>
+        <v>0.0297259713210141</v>
       </c>
       <c r="C51">
-        <v>0.007957861761373402</v>
+        <v>-0.003275445283502443</v>
       </c>
       <c r="D51">
-        <v>-0.01535382885360382</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01350309082941276</v>
+      </c>
+      <c r="E51">
+        <v>0.01498437024962536</v>
+      </c>
+      <c r="F51">
+        <v>-0.02135277888789872</v>
+      </c>
+      <c r="G51">
+        <v>-0.0008541671567759546</v>
+      </c>
+      <c r="H51">
+        <v>-0.007134380675893877</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1522849056613585</v>
+        <v>0.1625139935921551</v>
       </c>
       <c r="C53">
-        <v>0.08125243740080841</v>
+        <v>-0.0533388782541001</v>
       </c>
       <c r="D53">
-        <v>-0.01868144620703275</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01813098566300131</v>
+      </c>
+      <c r="E53">
+        <v>-0.02464811527457693</v>
+      </c>
+      <c r="F53">
+        <v>-0.01923740663394086</v>
+      </c>
+      <c r="G53">
+        <v>0.005624860841439548</v>
+      </c>
+      <c r="H53">
+        <v>0.1704974569527192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05545133143359991</v>
+        <v>0.05795358488391199</v>
       </c>
       <c r="C54">
-        <v>0.02684981121053894</v>
+        <v>-0.01527542656416708</v>
       </c>
       <c r="D54">
-        <v>-0.02313467698508697</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01682072936288136</v>
+      </c>
+      <c r="E54">
+        <v>0.05086394094395758</v>
+      </c>
+      <c r="F54">
+        <v>-0.001301549011522544</v>
+      </c>
+      <c r="G54">
+        <v>-0.01183155202898506</v>
+      </c>
+      <c r="H54">
+        <v>0.04840776017660497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1001147323900739</v>
+        <v>0.1032862411000991</v>
       </c>
       <c r="C55">
-        <v>0.05579277504807354</v>
+        <v>-0.03480589727772562</v>
       </c>
       <c r="D55">
-        <v>-0.02173960679571641</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02375886425260749</v>
+      </c>
+      <c r="E55">
+        <v>0.02083161158485613</v>
+      </c>
+      <c r="F55">
+        <v>-0.01388403665843654</v>
+      </c>
+      <c r="G55">
+        <v>-0.001425389258885397</v>
+      </c>
+      <c r="H55">
+        <v>0.1486981748167835</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1471621238400742</v>
+        <v>0.1601502556591475</v>
       </c>
       <c r="C56">
-        <v>0.09273510969401109</v>
+        <v>-0.0642649883912061</v>
       </c>
       <c r="D56">
-        <v>-0.01751117855040171</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01952576824721277</v>
+      </c>
+      <c r="E56">
+        <v>-0.02152995664995921</v>
+      </c>
+      <c r="F56">
+        <v>-0.03775939230358799</v>
+      </c>
+      <c r="G56">
+        <v>0.01426164311856969</v>
+      </c>
+      <c r="H56">
+        <v>0.1754285666778469</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1259682900402501</v>
+        <v>0.09794572392891961</v>
       </c>
       <c r="C58">
-        <v>0.008058281031721785</v>
+        <v>0.03489414454183815</v>
       </c>
       <c r="D58">
-        <v>-0.03167744001325569</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03733387618345813</v>
+      </c>
+      <c r="E58">
+        <v>0.1695931184049829</v>
+      </c>
+      <c r="F58">
+        <v>0.01936193647524021</v>
+      </c>
+      <c r="G58">
+        <v>0.06068140324135856</v>
+      </c>
+      <c r="H58">
+        <v>-0.2254850773189427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1168544529600212</v>
+        <v>0.1361820364560687</v>
       </c>
       <c r="C59">
-        <v>0.0781938880839082</v>
+        <v>-0.08369366901417725</v>
       </c>
       <c r="D59">
-        <v>0.3463657065931391</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3647955914539958</v>
+      </c>
+      <c r="E59">
+        <v>0.02174242240986108</v>
+      </c>
+      <c r="F59">
+        <v>-0.01796295487267678</v>
+      </c>
+      <c r="G59">
+        <v>0.03479561157011597</v>
+      </c>
+      <c r="H59">
+        <v>0.009070817157616363</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2034712703342278</v>
+        <v>0.2321508028089536</v>
       </c>
       <c r="C60">
-        <v>0.1069397144796926</v>
+        <v>-0.06940882087966928</v>
       </c>
       <c r="D60">
-        <v>0.00113606093653994</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0378974377899076</v>
+      </c>
+      <c r="E60">
+        <v>-0.09245116776424198</v>
+      </c>
+      <c r="F60">
+        <v>-0.07613350772726056</v>
+      </c>
+      <c r="G60">
+        <v>-0.0212137576654926</v>
+      </c>
+      <c r="H60">
+        <v>-0.1670935539222482</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07847100002229696</v>
+        <v>0.08809890452425617</v>
       </c>
       <c r="C61">
-        <v>0.05194677260001627</v>
+        <v>-0.03681193399741271</v>
       </c>
       <c r="D61">
-        <v>-0.05157166016229188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04429272880113352</v>
+      </c>
+      <c r="E61">
+        <v>-0.001300366138716131</v>
+      </c>
+      <c r="F61">
+        <v>-0.00417176528485219</v>
+      </c>
+      <c r="G61">
+        <v>-0.000344032239209266</v>
+      </c>
+      <c r="H61">
+        <v>0.07064844495442936</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1288241135946862</v>
+        <v>0.1392027373317525</v>
       </c>
       <c r="C62">
-        <v>0.06742344491981121</v>
+        <v>-0.04229947019858426</v>
       </c>
       <c r="D62">
-        <v>-0.02087686582134081</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.02942013913616729</v>
+      </c>
+      <c r="E62">
+        <v>-0.05951926545273026</v>
+      </c>
+      <c r="F62">
+        <v>-0.0199075128847545</v>
+      </c>
+      <c r="G62">
+        <v>-0.02369708198025586</v>
+      </c>
+      <c r="H62">
+        <v>0.1877277851059352</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05067227025815355</v>
+        <v>0.0502740405040074</v>
       </c>
       <c r="C63">
-        <v>0.02593704407464354</v>
+        <v>-0.01377701639956821</v>
       </c>
       <c r="D63">
-        <v>-0.02182012691291727</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02010171128826348</v>
+      </c>
+      <c r="E63">
+        <v>0.05095931055131304</v>
+      </c>
+      <c r="F63">
+        <v>0.01565328496168733</v>
+      </c>
+      <c r="G63">
+        <v>-0.0292819618165883</v>
+      </c>
+      <c r="H63">
+        <v>0.05653156778620892</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1044837403368162</v>
+        <v>0.1087932517479381</v>
       </c>
       <c r="C64">
-        <v>0.0245356090203383</v>
+        <v>-0.004513909163805977</v>
       </c>
       <c r="D64">
-        <v>-0.06196957170929218</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04090095649331535</v>
+      </c>
+      <c r="E64">
+        <v>0.04728689706829491</v>
+      </c>
+      <c r="F64">
+        <v>-0.03947352916494221</v>
+      </c>
+      <c r="G64">
+        <v>-0.04972995977825138</v>
+      </c>
+      <c r="H64">
+        <v>0.05543642897339626</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1218256078824137</v>
+        <v>0.1271123937850346</v>
       </c>
       <c r="C65">
-        <v>0.06293494102127593</v>
+        <v>-0.04072314457933852</v>
       </c>
       <c r="D65">
-        <v>0.02147967121709681</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.00131034153197188</v>
+      </c>
+      <c r="E65">
+        <v>0.01052072067185699</v>
+      </c>
+      <c r="F65">
+        <v>-0.06344379070115633</v>
+      </c>
+      <c r="G65">
+        <v>-0.05323306780070928</v>
+      </c>
+      <c r="H65">
+        <v>-0.128608914466826</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1410615072512915</v>
+        <v>0.1538489148537144</v>
       </c>
       <c r="C66">
-        <v>0.07805171855484065</v>
+        <v>-0.04798298696755767</v>
       </c>
       <c r="D66">
-        <v>-0.1216290451083259</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1008017158545796</v>
+      </c>
+      <c r="E66">
+        <v>-0.02781517423163383</v>
+      </c>
+      <c r="F66">
+        <v>-0.01792725628838865</v>
+      </c>
+      <c r="G66">
+        <v>-0.04376001396052374</v>
+      </c>
+      <c r="H66">
+        <v>0.1328251916502516</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07148158517025664</v>
+        <v>0.08329725233472779</v>
       </c>
       <c r="C67">
-        <v>0.01400947656343975</v>
+        <v>-0.004833333173948112</v>
       </c>
       <c r="D67">
-        <v>-0.0218784477308952</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03027471301633997</v>
+      </c>
+      <c r="E67">
+        <v>0.02481244788009315</v>
+      </c>
+      <c r="F67">
+        <v>-0.01277846556699978</v>
+      </c>
+      <c r="G67">
+        <v>0.005188348143519639</v>
+      </c>
+      <c r="H67">
+        <v>0.02664065938178188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0584926113519539</v>
+        <v>0.05749828132745664</v>
       </c>
       <c r="C68">
-        <v>0.05161968482687479</v>
+        <v>-0.05684698751021332</v>
       </c>
       <c r="D68">
-        <v>0.2528180514535459</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2708296390119161</v>
+      </c>
+      <c r="E68">
+        <v>0.03478226324990788</v>
+      </c>
+      <c r="F68">
+        <v>-0.01620425332595118</v>
+      </c>
+      <c r="G68">
+        <v>0.01599213842740044</v>
+      </c>
+      <c r="H68">
+        <v>0.00707645542617949</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05269441793846855</v>
+        <v>0.05312399072956793</v>
       </c>
       <c r="C69">
-        <v>0.01817136317860695</v>
+        <v>-0.005585922453391192</v>
       </c>
       <c r="D69">
-        <v>-0.01708203431796467</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01536599581700034</v>
+      </c>
+      <c r="E69">
+        <v>0.02471140507943006</v>
+      </c>
+      <c r="F69">
+        <v>0.009983994902673515</v>
+      </c>
+      <c r="G69">
+        <v>0.01447713412477498</v>
+      </c>
+      <c r="H69">
+        <v>0.05147845353351835</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.005625632014858947</v>
+        <v>0.02665544074365324</v>
       </c>
       <c r="C70">
-        <v>-0.005265446657913525</v>
+        <v>-7.043615550875635e-05</v>
       </c>
       <c r="D70">
-        <v>5.19155675504489e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.00157457927682832</v>
+      </c>
+      <c r="E70">
+        <v>-0.02226299698033959</v>
+      </c>
+      <c r="F70">
+        <v>-0.02952094093956953</v>
+      </c>
+      <c r="G70">
+        <v>0.0183404404194812</v>
+      </c>
+      <c r="H70">
+        <v>-0.04365799068170797</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05775504557769772</v>
+        <v>0.05954153275548069</v>
       </c>
       <c r="C71">
-        <v>0.05122634940383185</v>
+        <v>-0.06023342094456117</v>
       </c>
       <c r="D71">
-        <v>0.2939607124433448</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2955917343624084</v>
+      </c>
+      <c r="E71">
+        <v>0.03133790084186281</v>
+      </c>
+      <c r="F71">
+        <v>-0.04213429925508165</v>
+      </c>
+      <c r="G71">
+        <v>0.006232249908662618</v>
+      </c>
+      <c r="H71">
+        <v>0.01158148414539458</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1391583759293426</v>
+        <v>0.1477396299758934</v>
       </c>
       <c r="C72">
-        <v>0.06613213104867072</v>
+        <v>-0.0382883179972037</v>
       </c>
       <c r="D72">
-        <v>0.0005384193112965562</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01203107331684623</v>
+      </c>
+      <c r="E72">
+        <v>-0.1219683766915296</v>
+      </c>
+      <c r="F72">
+        <v>0.1510115039064566</v>
+      </c>
+      <c r="G72">
+        <v>-0.1134526650310138</v>
+      </c>
+      <c r="H72">
+        <v>0.02739726988289309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2739660508403482</v>
+        <v>0.2883708928846995</v>
       </c>
       <c r="C73">
-        <v>0.1142224087165209</v>
+        <v>-0.0475955205498187</v>
       </c>
       <c r="D73">
-        <v>-0.04182730516202911</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09807593496567298</v>
+      </c>
+      <c r="E73">
+        <v>-0.2105284289124565</v>
+      </c>
+      <c r="F73">
+        <v>-0.123225716955529</v>
+      </c>
+      <c r="G73">
+        <v>0.1889806202483401</v>
+      </c>
+      <c r="H73">
+        <v>-0.4631912305699811</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07946850651175429</v>
+        <v>0.09196957512338465</v>
       </c>
       <c r="C74">
-        <v>0.0776777631406585</v>
+        <v>-0.05957659923211562</v>
       </c>
       <c r="D74">
-        <v>-0.01624541455764345</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03171445067959822</v>
+      </c>
+      <c r="E74">
+        <v>-0.004531192437227998</v>
+      </c>
+      <c r="F74">
+        <v>0.008077489182761431</v>
+      </c>
+      <c r="G74">
+        <v>0.04289990864210789</v>
+      </c>
+      <c r="H74">
+        <v>0.1186712154048383</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09373004501758185</v>
+        <v>0.09967551810197262</v>
       </c>
       <c r="C75">
-        <v>0.05519579932779747</v>
+        <v>-0.0298696980441908</v>
       </c>
       <c r="D75">
-        <v>-0.006889440584383113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.01447319694744033</v>
+      </c>
+      <c r="E75">
+        <v>0.01041280667131823</v>
+      </c>
+      <c r="F75">
+        <v>-0.02686415407361096</v>
+      </c>
+      <c r="G75">
+        <v>0.0138210606309428</v>
+      </c>
+      <c r="H75">
+        <v>0.1156677504557336</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1296925828328086</v>
+        <v>0.1396453323648061</v>
       </c>
       <c r="C76">
-        <v>0.08411816478793196</v>
+        <v>-0.05685667848813335</v>
       </c>
       <c r="D76">
-        <v>-0.05078152252030054</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05153494118781782</v>
+      </c>
+      <c r="E76">
+        <v>0.03445753369811897</v>
+      </c>
+      <c r="F76">
+        <v>-0.04335467045134082</v>
+      </c>
+      <c r="G76">
+        <v>-0.003194200050080566</v>
+      </c>
+      <c r="H76">
+        <v>0.1846374652111143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.113840785107567</v>
+        <v>0.1106585251466394</v>
       </c>
       <c r="C77">
-        <v>0.02427440655572663</v>
+        <v>0.003711041257706836</v>
       </c>
       <c r="D77">
-        <v>-0.04895789122457548</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01894186799978592</v>
+      </c>
+      <c r="E77">
+        <v>0.02366599742393015</v>
+      </c>
+      <c r="F77">
+        <v>-0.136097054517216</v>
+      </c>
+      <c r="G77">
+        <v>-0.885824761771459</v>
+      </c>
+      <c r="H77">
+        <v>-0.1728415085971275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.09924077341907882</v>
+        <v>0.1387475016176616</v>
       </c>
       <c r="C78">
-        <v>0.04005437417754974</v>
+        <v>-0.03347265078997268</v>
       </c>
       <c r="D78">
-        <v>-0.08427141080404454</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08529439937087839</v>
+      </c>
+      <c r="E78">
+        <v>0.05950316814775595</v>
+      </c>
+      <c r="F78">
+        <v>-0.03584765723147143</v>
+      </c>
+      <c r="G78">
+        <v>-0.07476760311068512</v>
+      </c>
+      <c r="H78">
+        <v>-0.05366151946359585</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1466354080409858</v>
+        <v>0.1518160769314616</v>
       </c>
       <c r="C79">
-        <v>0.07924074872396131</v>
+        <v>-0.04527261713219884</v>
       </c>
       <c r="D79">
-        <v>-0.02505008600801218</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02757610314116164</v>
+      </c>
+      <c r="E79">
+        <v>-0.01191174372085064</v>
+      </c>
+      <c r="F79">
+        <v>-0.01804789912904347</v>
+      </c>
+      <c r="G79">
+        <v>0.02166151507875916</v>
+      </c>
+      <c r="H79">
+        <v>0.1808358879909615</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04566343238789265</v>
+        <v>0.04286381157887657</v>
       </c>
       <c r="C80">
-        <v>0.01494201795095806</v>
+        <v>-0.005113760573026503</v>
       </c>
       <c r="D80">
-        <v>-0.02892078642352452</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01921272152676907</v>
+      </c>
+      <c r="E80">
+        <v>-0.006723692429410868</v>
+      </c>
+      <c r="F80">
+        <v>0.005103199868165697</v>
+      </c>
+      <c r="G80">
+        <v>0.03428164777614684</v>
+      </c>
+      <c r="H80">
+        <v>0.03880560043069156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1145240697583587</v>
+        <v>0.1199016322610749</v>
       </c>
       <c r="C81">
-        <v>0.06517197576537377</v>
+        <v>-0.03797645778423559</v>
       </c>
       <c r="D81">
-        <v>-0.02762079680625355</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02352397040842515</v>
+      </c>
+      <c r="E81">
+        <v>0.02819271441715579</v>
+      </c>
+      <c r="F81">
+        <v>-0.0128309307453353</v>
+      </c>
+      <c r="G81">
+        <v>0.04621452345843676</v>
+      </c>
+      <c r="H81">
+        <v>0.1498868729223504</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1298386898049185</v>
+        <v>0.1309153107645686</v>
       </c>
       <c r="C82">
-        <v>0.08079145024551146</v>
+        <v>-0.05147794800505352</v>
       </c>
       <c r="D82">
-        <v>-0.01666130027888934</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.02814856079718561</v>
+      </c>
+      <c r="E82">
+        <v>-0.00911804472572403</v>
+      </c>
+      <c r="F82">
+        <v>-0.05710442645397248</v>
+      </c>
+      <c r="G82">
+        <v>0.03126886728744614</v>
+      </c>
+      <c r="H82">
+        <v>0.2026165262938595</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.079265176304073</v>
+        <v>0.08837169005926078</v>
       </c>
       <c r="C83">
-        <v>-0.005407528819169706</v>
+        <v>0.0214640014128226</v>
       </c>
       <c r="D83">
-        <v>-0.02482033789208279</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03368802539922351</v>
+      </c>
+      <c r="E83">
+        <v>0.028622755866286</v>
+      </c>
+      <c r="F83">
+        <v>-0.05533846406262337</v>
+      </c>
+      <c r="G83">
+        <v>0.08137094325686106</v>
+      </c>
+      <c r="H83">
+        <v>-0.06250465731890879</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02734945876158522</v>
+        <v>0.03712288629026656</v>
       </c>
       <c r="C84">
-        <v>0.02558285927370538</v>
+        <v>-0.02074972511806111</v>
       </c>
       <c r="D84">
-        <v>-0.03444550838771349</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.02927686462576846</v>
+      </c>
+      <c r="E84">
+        <v>0.01962776952203782</v>
+      </c>
+      <c r="F84">
+        <v>0.05751544415154612</v>
+      </c>
+      <c r="G84">
+        <v>0.06259451358463279</v>
+      </c>
+      <c r="H84">
+        <v>0.007145531026730536</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1193654849380085</v>
+        <v>0.1200466366448703</v>
       </c>
       <c r="C85">
-        <v>0.0601809881987459</v>
+        <v>-0.03046039779226565</v>
       </c>
       <c r="D85">
-        <v>-0.01955645458264977</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.02452963162238674</v>
+      </c>
+      <c r="E85">
+        <v>0.02549121286757673</v>
+      </c>
+      <c r="F85">
+        <v>-0.0387288262597267</v>
+      </c>
+      <c r="G85">
+        <v>0.01529933243291863</v>
+      </c>
+      <c r="H85">
+        <v>0.1581156440793973</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.04948899921870099</v>
+        <v>0.0581271501020816</v>
       </c>
       <c r="C86">
-        <v>0.03075157597348515</v>
+        <v>-0.02033812547274351</v>
       </c>
       <c r="D86">
-        <v>-0.02212136880734035</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.02417638695458417</v>
+      </c>
+      <c r="E86">
+        <v>0.0646056742687357</v>
+      </c>
+      <c r="F86">
+        <v>-0.02233297224797789</v>
+      </c>
+      <c r="G86">
+        <v>0.01962392219753335</v>
+      </c>
+      <c r="H86">
+        <v>-0.0007506005300401055</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1212924124326976</v>
+        <v>0.122720578189626</v>
       </c>
       <c r="C87">
-        <v>0.07209225558399075</v>
+        <v>-0.03758863422917945</v>
       </c>
       <c r="D87">
-        <v>-0.07955332752850505</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07363243184059688</v>
+      </c>
+      <c r="E87">
+        <v>0.02102175577896275</v>
+      </c>
+      <c r="F87">
+        <v>0.00525970883137509</v>
+      </c>
+      <c r="G87">
+        <v>-0.1093008849873827</v>
+      </c>
+      <c r="H87">
+        <v>-0.04087551500188331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05280179836796753</v>
+        <v>0.06024395956162689</v>
       </c>
       <c r="C88">
-        <v>0.0295713792643389</v>
+        <v>-0.0189675710453307</v>
       </c>
       <c r="D88">
-        <v>-0.01767714560638605</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03011263755468791</v>
+      </c>
+      <c r="E88">
+        <v>0.02063862226045078</v>
+      </c>
+      <c r="F88">
+        <v>-0.005103744073668361</v>
+      </c>
+      <c r="G88">
+        <v>-0.008127385900581811</v>
+      </c>
+      <c r="H88">
+        <v>0.05143906169635773</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08061490534123791</v>
+        <v>0.09157463406833916</v>
       </c>
       <c r="C89">
-        <v>0.06871831255606392</v>
+        <v>-0.07780710753422261</v>
       </c>
       <c r="D89">
-        <v>0.3244951284150904</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3456633651195293</v>
+      </c>
+      <c r="E89">
+        <v>0.07196837656679285</v>
+      </c>
+      <c r="F89">
+        <v>-0.08050695496677125</v>
+      </c>
+      <c r="G89">
+        <v>0.01940330564595012</v>
+      </c>
+      <c r="H89">
+        <v>0.006970812564889164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07297819752191978</v>
+        <v>0.07868858633120039</v>
       </c>
       <c r="C90">
-        <v>0.06217990271864571</v>
+        <v>-0.0682090210976381</v>
       </c>
       <c r="D90">
-        <v>0.325314275465011</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.3106614513421589</v>
+      </c>
+      <c r="E90">
+        <v>0.05860359383813952</v>
+      </c>
+      <c r="F90">
+        <v>-0.002274921471558605</v>
+      </c>
+      <c r="G90">
+        <v>0.004533763982297535</v>
+      </c>
+      <c r="H90">
+        <v>0.008797767425316528</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08481912861528253</v>
+        <v>0.08937251052577544</v>
       </c>
       <c r="C91">
-        <v>0.05548283730769977</v>
+        <v>-0.03356243196892428</v>
       </c>
       <c r="D91">
-        <v>-0.03333636328502029</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03079263457514263</v>
+      </c>
+      <c r="E91">
+        <v>0.01738068013222782</v>
+      </c>
+      <c r="F91">
+        <v>-0.003706888308012272</v>
+      </c>
+      <c r="G91">
+        <v>0.05075917594032188</v>
+      </c>
+      <c r="H91">
+        <v>0.08184187948625875</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07383277884882497</v>
+        <v>0.07859118257819722</v>
       </c>
       <c r="C92">
-        <v>0.07210389765657647</v>
+        <v>-0.07934788902721522</v>
       </c>
       <c r="D92">
-        <v>0.3451784006466799</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3453972198647415</v>
+      </c>
+      <c r="E92">
+        <v>0.04417817961036721</v>
+      </c>
+      <c r="F92">
+        <v>-0.04085322399926464</v>
+      </c>
+      <c r="G92">
+        <v>-0.0086214110545875</v>
+      </c>
+      <c r="H92">
+        <v>0.01990575565236288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06515346953104514</v>
+        <v>0.07620973884265546</v>
       </c>
       <c r="C93">
-        <v>0.06548125729350282</v>
+        <v>-0.07772614120799648</v>
       </c>
       <c r="D93">
-        <v>0.3192529430971774</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.3070580819077718</v>
+      </c>
+      <c r="E93">
+        <v>0.03595029943523212</v>
+      </c>
+      <c r="F93">
+        <v>-0.03925712423467934</v>
+      </c>
+      <c r="G93">
+        <v>-0.01077544085593389</v>
+      </c>
+      <c r="H93">
+        <v>-0.00909986879028692</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1322658587561838</v>
+        <v>0.1269003031596476</v>
       </c>
       <c r="C94">
-        <v>0.05847253403751489</v>
+        <v>-0.02293060786092435</v>
       </c>
       <c r="D94">
-        <v>-0.0411217488944032</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04813830823784404</v>
+      </c>
+      <c r="E94">
+        <v>-6.873253664564836e-05</v>
+      </c>
+      <c r="F94">
+        <v>-0.01990746115031643</v>
+      </c>
+      <c r="G94">
+        <v>0.05342888526911579</v>
+      </c>
+      <c r="H94">
+        <v>0.1052716958210437</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1193832561167362</v>
+        <v>0.128692260184111</v>
       </c>
       <c r="C95">
-        <v>0.03471460276662436</v>
+        <v>-0.007489880562876263</v>
       </c>
       <c r="D95">
-        <v>-0.05425233037986117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.0627244203820586</v>
+      </c>
+      <c r="E95">
+        <v>0.01105868931256668</v>
+      </c>
+      <c r="F95">
+        <v>-0.0458895574057067</v>
+      </c>
+      <c r="G95">
+        <v>0.006132970060341214</v>
+      </c>
+      <c r="H95">
+        <v>-0.03816767068389453</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2053903468572583</v>
+        <v>0.2094119856024824</v>
       </c>
       <c r="C97">
-        <v>0.04440624051001364</v>
+        <v>-0.002481622475291812</v>
       </c>
       <c r="D97">
-        <v>0.07218550448527269</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.09158931344527939</v>
+      </c>
+      <c r="E97">
+        <v>-0.3365450336044492</v>
+      </c>
+      <c r="F97">
+        <v>0.856293121980037</v>
+      </c>
+      <c r="G97">
+        <v>-0.09606525113379047</v>
+      </c>
+      <c r="H97">
+        <v>0.002625765014267792</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2439227505266484</v>
+        <v>0.2746846395377238</v>
       </c>
       <c r="C98">
-        <v>0.07638092903348098</v>
+        <v>-0.03383004353601589</v>
       </c>
       <c r="D98">
-        <v>-0.04874082126851532</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05910850543319383</v>
+      </c>
+      <c r="E98">
+        <v>-0.1648144911109548</v>
+      </c>
+      <c r="F98">
+        <v>-0.08570342814390658</v>
+      </c>
+      <c r="G98">
+        <v>0.260895458914492</v>
+      </c>
+      <c r="H98">
+        <v>-0.241349754789419</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4580078795140762</v>
+        <v>0.2860404697313414</v>
       </c>
       <c r="C99">
-        <v>-0.8730237177557625</v>
+        <v>0.9350012787348242</v>
       </c>
       <c r="D99">
-        <v>0.05494644755127593</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.1268799846419361</v>
+      </c>
+      <c r="E99">
+        <v>0.06733077471694668</v>
+      </c>
+      <c r="F99">
+        <v>-0.04456967404715188</v>
+      </c>
+      <c r="G99">
+        <v>0.01339546105518708</v>
+      </c>
+      <c r="H99">
+        <v>0.06731137945950393</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04005127975614526</v>
+        <v>0.04800246943609334</v>
       </c>
       <c r="C101">
-        <v>0.03105451362880191</v>
+        <v>-0.02561267964719155</v>
       </c>
       <c r="D101">
-        <v>4.013397882718593e-05</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.006059946184655039</v>
+      </c>
+      <c r="E101">
+        <v>0.05643557350119564</v>
+      </c>
+      <c r="F101">
+        <v>0.003709970061894623</v>
+      </c>
+      <c r="G101">
+        <v>0.004886264190004379</v>
+      </c>
+      <c r="H101">
+        <v>0.07783505026267193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
